--- a/A3Portal_NOPOI/Testcases/testscenarios.xlsx
+++ b/A3Portal_NOPOI/Testcases/testscenarios.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="ankit"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{916B3B9B-0BA5-48C7-8AF8-8FB6F68B751B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="9390" windowHeight="3795" tabRatio="500"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="9420" windowHeight="7260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenarios" sheetId="1" r:id="rId4"/>
-    <sheet name="Login" sheetId="2" r:id="rId5"/>
-    <sheet name="test2" sheetId="3" r:id="rId6"/>
-    <sheet name="test3" sheetId="4" r:id="rId7"/>
-    <sheet name="test4" sheetId="5" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId9"/>
+    <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="test2" sheetId="3" r:id="rId3"/>
+    <sheet name="test3" sheetId="4" r:id="rId4"/>
+    <sheet name="test4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1561024815" val="944" rev="123" revOS="4"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="149">
   <si>
     <t>Scenario Name</t>
   </si>
@@ -93,9 +94,7 @@
     <t>USERNAME_TEXTBOX</t>
   </si>
   <si>
-    <r>
-      <t>sendkeys</t>
-    </r>
+    <t>sendkeys</t>
   </si>
   <si>
     <t>shashank.kumar@corecompete.com</t>
@@ -489,155 +488,52 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="49" formatCode="@"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1561024815" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1561024815" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <color rgb="FF222222"/>
-      <sz val="9"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1561024815" fgClr="222222" ulstyle="none" kern="1">
-            <pm:latin face="Consolas" sz="180" lang="default"/>
-            <pm:cs face="Times New Roman" sz="180" lang="default"/>
-            <pm:ea face="SimSun" sz="180" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1561024815" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
-            <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <b/>
-      <color rgb="FFFF0000"/>
-      <sz val="9"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1561024815" fgClr="FF0000" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="180" lang="default" weight="bold"/>
-            <pm:cs face="Times New Roman" sz="180" lang="default" weight="bold"/>
-            <pm:ea face="SimSun" sz="180" lang="default" weight="bold"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1561024815" fgClr="FF0000" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1561024815" ulstyle="none">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Arial" sz="220" lang="default"/>
-            <pm:ea face="Arial" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1561024815" ulstyle="none" kern="1">
-            <pm:latin face="Consolas" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <color rgb="FF948A54"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1561024815" fgClr="948A54" ulstyle="none" kern="1">
-            <pm:latin face="Consolas" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
   <fills count="3">
@@ -651,33 +547,16 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF948A54"/>
         <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1561024815" type="1" fgLvl="100" fgClr="00948A54" bgLvl="0" bgClr="00000000"/>
-          </ext>
-        </extLst>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1561024815"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -692,20 +571,11 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1561024815">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -713,11 +583,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -727,35 +597,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1561024815" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
@@ -780,10 +657,10 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -812,14 +689,108 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="SimSun"/>
-        <a:cs typeface="Times New Roman"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -995,20 +966,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.714286" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.428571" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1024,7 +995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1032,7 +1003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1040,7 +1011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1049,25 +1020,8 @@
       </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1561024815" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1561024815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1561024815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1561024815" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1561024815" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" pageOrder="overThenDown"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1561024815" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -1080,25 +1034,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.857143" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.026786" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.285714" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="37.714286" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.571429" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.142857" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="59.571429" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1124,7 +1078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1150,7 +1104,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1176,7 +1130,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1202,7 +1156,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1228,7 +1182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -1254,39 +1208,13 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="5:5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E8" s="1"/>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1561024815" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1561024815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1561024815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1561024815" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1561024815" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1561024815" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -1299,25 +1227,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.857143" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.428571" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.285714" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="37.714286" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.571429" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.857143" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="59.571429" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1343,7 +1271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1362,10 +1290,8 @@
       <c r="F2" t="s">
         <v>43</v>
       </c>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1384,10 +1310,8 @@
       <c r="F3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G3"/>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1406,10 +1330,8 @@
       <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1428,10 +1350,8 @@
       <c r="F5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -1450,10 +1370,8 @@
       <c r="F6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1472,29 +1390,10 @@
       <c r="F7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1561024815" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1561024815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1561024815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1561024815" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1561024815" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1561024815" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -1507,27 +1406,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.857143" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="28.428571" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.285714" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.285714" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.428571" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.857143" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="8" width="9.142857" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="8" width="59.571429" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="28.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="8" width="9.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="8" width="59.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1553,7 +1452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
@@ -1579,7 +1478,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -1605,7 +1504,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
@@ -1631,7 +1530,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
@@ -1657,7 +1556,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -1683,7 +1582,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>71</v>
       </c>
@@ -1709,7 +1608,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>76</v>
       </c>
@@ -1735,7 +1634,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>80</v>
       </c>
@@ -1759,7 +1658,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>82</v>
       </c>
@@ -1785,7 +1684,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>84</v>
       </c>
@@ -1811,7 +1710,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>89</v>
       </c>
@@ -1837,7 +1736,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>90</v>
       </c>
@@ -1863,7 +1762,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>95</v>
       </c>
@@ -1885,7 +1784,7 @@
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>98</v>
       </c>
@@ -1907,7 +1806,7 @@
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>103</v>
       </c>
@@ -1929,7 +1828,7 @@
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>107</v>
       </c>
@@ -1951,7 +1850,7 @@
       <c r="G17"/>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>111</v>
       </c>
@@ -1973,7 +1872,7 @@
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>115</v>
       </c>
@@ -1995,7 +1894,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>116</v>
       </c>
@@ -2017,7 +1916,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>120</v>
       </c>
@@ -2039,7 +1938,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>125</v>
       </c>
@@ -2061,7 +1960,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>128</v>
       </c>
@@ -2083,7 +1982,7 @@
       <c r="G23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>130</v>
       </c>
@@ -2105,7 +2004,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>134</v>
       </c>
@@ -2127,44 +2026,27 @@
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1561024815" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1561024815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1561024815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1561024815" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1561024815" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1561024815" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -2177,27 +2059,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.857143" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="28.428571" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.285714" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.285714" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.428571" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.857143" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="8" width="9.142857" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="8" width="59.571429" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="28.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="8" width="9.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="8" width="59.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2223,7 +2105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
@@ -2245,7 +2127,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="34.50" customHeight="1">
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -2267,7 +2149,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" ht="33" customHeight="1">
+    <row r="4" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
@@ -2289,7 +2171,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
@@ -2312,25 +2194,8 @@
       <c r="H5"/>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1561024815" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1561024815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1561024815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1561024815" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1561024815" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1561024815" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -2343,34 +2208,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1561024815" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1561024815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1561024815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1561024815" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1561024815" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" pageOrder="overThenDown"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1561024815" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
